--- a/meta_stra_framwork/result/jiang/year/2015_pure.xlsx
+++ b/meta_stra_framwork/result/jiang/year/2015_pure.xlsx
@@ -410,7 +410,7 @@
         <v>1.000277568854984</v>
       </c>
       <c r="C3">
-        <v>0.6666668245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>1.006992944378783</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.0000000663</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>0.982969807671645</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.0000000649</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>0.9805671955397968</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.0000000637</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>0.9638265105118012</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.0000000639</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1.029481990855151</v>
       </c>
       <c r="C47">
-        <v>0.6666668207999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1.045464584601793</v>
       </c>
       <c r="C48">
-        <v>0.6666668207000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1.067685016057209</v>
       </c>
       <c r="C49">
-        <v>0.6666668218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1.069168367895133</v>
       </c>
       <c r="C50">
-        <v>0.6666668186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1.07962943065554</v>
       </c>
       <c r="C51">
-        <v>1.0000001532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1.100644079128016</v>
       </c>
       <c r="C52">
-        <v>0.666666821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1.101742416102575</v>
       </c>
       <c r="C53">
-        <v>1.0000001535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1.092585628499457</v>
       </c>
       <c r="C54">
-        <v>1.0000001491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1.098963742941394</v>
       </c>
       <c r="C55">
-        <v>1.0000001511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1.101649893150914</v>
       </c>
       <c r="C56">
-        <v>1.0000001508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1.13014397765123</v>
       </c>
       <c r="C57">
-        <v>0.6666668233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1.118602485584327</v>
       </c>
       <c r="C58">
-        <v>0.6666668242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1.137223475758987</v>
       </c>
       <c r="C59">
-        <v>0.6666668263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>1.141846638730704</v>
       </c>
       <c r="C60">
-        <v>0.6666668247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>1.153232931007724</v>
       </c>
       <c r="C61">
-        <v>0.6666668252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>1.182317968554135</v>
       </c>
       <c r="C62">
-        <v>0.6666668348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>1.192295524276829</v>
       </c>
       <c r="C63">
-        <v>0.6666668459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>1.181168893186729</v>
       </c>
       <c r="C64">
-        <v>0.6666668467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>1.204084739085276</v>
       </c>
       <c r="C65">
-        <v>0.6666668647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>1.230170242231057</v>
       </c>
       <c r="C66">
-        <v>1.0000001654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>1.234303928942373</v>
       </c>
       <c r="C67">
-        <v>1.000000163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>1.218963026634672</v>
       </c>
       <c r="C68">
-        <v>1.0000001665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>1.474908372431742</v>
       </c>
       <c r="C97">
-        <v>0.6666668314999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>1.378971025393073</v>
       </c>
       <c r="C98">
-        <v>1.000000155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,7 +1463,7 @@
         <v>20150529</v>
       </c>
       <c r="B99">
-        <v>1.376425151916717</v>
+        <v>1.378971025393073</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>20150601</v>
       </c>
       <c r="B100">
-        <v>1.441191218079582</v>
+        <v>1.378971025393073</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>20150602</v>
       </c>
       <c r="B101">
-        <v>1.465602354261428</v>
+        <v>1.378971025393073</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>20150603</v>
       </c>
       <c r="B102">
-        <v>1.465438200637513</v>
+        <v>1.378971025393073</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>20150604</v>
       </c>
       <c r="B103">
-        <v>1.47651707794611</v>
+        <v>1.378971025393073</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         <v>1.526189964542817</v>
       </c>
       <c r="C106">
-        <v>0.6666668365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>1.523954490646228</v>
       </c>
       <c r="C107">
-        <v>0.6666668335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>1.528595561286009</v>
       </c>
       <c r="C108">
-        <v>0.6666668314999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>20150612</v>
       </c>
       <c r="B109">
-        <v>1.541954681661354</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C109">
-        <v>1.0000001651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>20150615</v>
       </c>
       <c r="B110">
-        <v>1.511105738810692</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C110">
-        <v>1.0000001592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>20150616</v>
       </c>
       <c r="B111">
-        <v>1.458707902056994</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v>20150617</v>
       </c>
       <c r="B112">
-        <v>1.482725069541444</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>20150618</v>
       </c>
       <c r="B113">
-        <v>1.428243974069697</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>20150619</v>
       </c>
       <c r="B114">
-        <v>1.336616405811635</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>20150623</v>
       </c>
       <c r="B115">
-        <v>1.365904396929432</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>20150624</v>
       </c>
       <c r="B116">
-        <v>1.399827489464322</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>20150625</v>
       </c>
       <c r="B117">
-        <v>1.351366355073242</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>20150626</v>
       </c>
       <c r="B118">
-        <v>1.251408736554326</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>20150629</v>
       </c>
       <c r="B119">
-        <v>1.209671931521077</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>20150630</v>
       </c>
       <c r="B120">
-        <v>1.276583933240214</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>20150701</v>
       </c>
       <c r="B121">
-        <v>1.209871900481119</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>20150702</v>
       </c>
       <c r="B122">
-        <v>1.167809772811385</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>20150703</v>
       </c>
       <c r="B123">
-        <v>1.100402325609159</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>20150706</v>
       </c>
       <c r="B124">
-        <v>1.126962381958621</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>20150707</v>
       </c>
       <c r="B125">
-        <v>1.112400463211681</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>20150708</v>
       </c>
       <c r="B126">
-        <v>1.046759905925051</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>20150709</v>
       </c>
       <c r="B127">
-        <v>1.107090839630863</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>20150710</v>
       </c>
       <c r="B128">
-        <v>1.157372586941728</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>20150713</v>
       </c>
       <c r="B129">
-        <v>1.185007103374998</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>20150714</v>
       </c>
       <c r="B130">
-        <v>1.171307737306448</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>20150715</v>
       </c>
       <c r="B131">
-        <v>1.135853539152132</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>20150716</v>
       </c>
       <c r="B132">
-        <v>1.141070639781288</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>20150717</v>
       </c>
       <c r="B133">
-        <v>1.181115170182539</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>20150720</v>
       </c>
       <c r="B134">
-        <v>1.191489679213973</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>20150721</v>
       </c>
       <c r="B135">
-        <v>1.199118345809009</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -1870,7 +1870,7 @@
         <v>20150722</v>
       </c>
       <c r="B136">
-        <v>1.201616465503862</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         <v>20150723</v>
       </c>
       <c r="B137">
-        <v>1.230829841338061</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>20150724</v>
       </c>
       <c r="B138">
-        <v>1.21500841660399</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>20150727</v>
       </c>
       <c r="B139">
-        <v>1.111934863842031</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -1914,7 +1914,7 @@
         <v>20150728</v>
       </c>
       <c r="B140">
-        <v>1.093263135274525</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>20150729</v>
       </c>
       <c r="B141">
-        <v>1.130919976600647</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>20150730</v>
       </c>
       <c r="B142">
-        <v>1.106028317992431</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>20150731</v>
       </c>
       <c r="B143">
-        <v>1.09348101190263</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>20150803</v>
       </c>
       <c r="B144">
-        <v>1.081297828396786</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>20150804</v>
       </c>
       <c r="B145">
-        <v>1.121181189785466</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>20150805</v>
       </c>
       <c r="B146">
-        <v>1.102685553287251</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>20150806</v>
       </c>
       <c r="B147">
-        <v>1.092827382018314</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>20150807</v>
       </c>
       <c r="B148">
-        <v>1.11749817938708</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>20150810</v>
       </c>
       <c r="B149">
-        <v>1.172480689564605</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2024,7 +2024,7 @@
         <v>20150811</v>
       </c>
       <c r="B150">
-        <v>1.172328474386065</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>20150812</v>
       </c>
       <c r="B151">
-        <v>1.15991547580674</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>20150813</v>
       </c>
       <c r="B152">
-        <v>1.180282463617588</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2057,7 +2057,7 @@
         <v>20150814</v>
       </c>
       <c r="B153">
-        <v>1.18349689003498</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>20150817</v>
       </c>
       <c r="B154">
-        <v>1.191955278583623</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>20150818</v>
       </c>
       <c r="B155">
-        <v>1.118680085479269</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>20150819</v>
       </c>
       <c r="B156">
-        <v>1.132394374604539</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>20150820</v>
       </c>
       <c r="B157">
-        <v>1.093648150137889</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2112,7 +2112,7 @@
         <v>20150821</v>
       </c>
       <c r="B158">
-        <v>1.046924059548966</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>20150824</v>
       </c>
       <c r="B159">
-        <v>0.9580333798932703</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>20150825</v>
       </c>
       <c r="B160">
-        <v>0.8849283096355192</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>20150826</v>
       </c>
       <c r="B161">
-        <v>0.8736822940916634</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>20150827</v>
       </c>
       <c r="B162">
-        <v>0.9203317693969891</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2167,7 +2167,7 @@
         <v>20150828</v>
       </c>
       <c r="B163">
-        <v>0.9647308477490061</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2178,7 +2178,7 @@
         <v>20150831</v>
       </c>
       <c r="B164">
-        <v>0.9568634122464572</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>20150901</v>
       </c>
       <c r="B165">
-        <v>0.9451129973854804</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>20150902</v>
       </c>
       <c r="B166">
-        <v>0.9431879230686581</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>20150907</v>
       </c>
       <c r="B167">
-        <v>0.9193856476009694</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>20150908</v>
       </c>
       <c r="B168">
-        <v>0.9462561035301983</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>20150909</v>
       </c>
       <c r="B169">
-        <v>0.9679363203323663</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2244,7 +2244,7 @@
         <v>20150910</v>
       </c>
       <c r="B170">
-        <v>0.9544458770578895</v>
+        <v>1.528595561286009</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>1.071484426298007</v>
       </c>
       <c r="C206">
-        <v>0.6666667906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>1.08845194178814</v>
       </c>
       <c r="C207">
-        <v>0.6666667961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2665,7 +2665,7 @@
         <v>1.086544775139381</v>
       </c>
       <c r="C208">
-        <v>0.6666667942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2676,7 +2676,7 @@
         <v>1.089457755811038</v>
       </c>
       <c r="C209">
-        <v>0.6666667922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2687,7 +2687,7 @@
         <v>1.084279455129353</v>
       </c>
       <c r="C210">
-        <v>0.6666667907</v>
+        <v>1.00000007</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>1.068741568472954</v>
       </c>
       <c r="C211">
-        <v>1.0000001224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2709,7 +2709,7 @@
         <v>1.076537373303248</v>
       </c>
       <c r="C212">
-        <v>1.0000001234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>1.075892697252964</v>
       </c>
       <c r="C213">
-        <v>1.000000125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1.065049604240536</v>
       </c>
       <c r="C214">
-        <v>0.6666667909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>1.079551830760598</v>
       </c>
       <c r="C215">
-        <v>0.6666667917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2753,7 +2753,7 @@
         <v>1.083563148406814</v>
       </c>
       <c r="C216">
-        <v>0.6666667922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2764,7 +2764,7 @@
         <v>1.077537218103459</v>
       </c>
       <c r="C217">
-        <v>1.0000001245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2995,7 +2995,7 @@
         <v>1.089911416735313</v>
       </c>
       <c r="C238">
-        <v>0.666666791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3006,7 +3006,7 @@
         <v>1.085231546148061</v>
       </c>
       <c r="C239">
-        <v>0.6666667915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>1.078187863376431</v>
       </c>
       <c r="C240">
-        <v>0.6666667901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>1.082790134068742</v>
       </c>
       <c r="C241">
-        <v>1.0000001241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>1.054695987488509</v>
       </c>
       <c r="C242">
-        <v>1.0000001198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>0.8665311653116531</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>1.0000000508</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>0.8741628165180331</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>1.0000000559</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>0.818156584649547</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>1.0000000517</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>0.8259046356983394</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>1.0000000545</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3608,7 +3608,7 @@
         <v>20160317</v>
       </c>
       <c r="B294">
-        <v>0.8669788570132397</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>20160318</v>
       </c>
       <c r="B295">
-        <v>0.8819974212957989</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>20160321</v>
       </c>
       <c r="B296">
-        <v>0.9009944724997911</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -3641,10 +3641,10 @@
         <v>20160322</v>
       </c>
       <c r="B297">
-        <v>0.8951923880472286</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C297">
-        <v>0.6666667739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>20160323</v>
       </c>
       <c r="B298">
-        <v>0.8983560760717739</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C298">
-        <v>0.6666667737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>20160324</v>
       </c>
       <c r="B299">
-        <v>0.8837344650979548</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C299">
-        <v>1.0000001052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>20160325</v>
       </c>
       <c r="B300">
-        <v>0.8892440576388142</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C300">
-        <v>1.0000001059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>20160328</v>
       </c>
       <c r="B301">
-        <v>0.8827943125246231</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C301">
-        <v>1.0000001048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>20160329</v>
       </c>
       <c r="B302">
-        <v>0.8714557740291059</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C302">
-        <v>1.0000001043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>20160330</v>
       </c>
       <c r="B303">
-        <v>0.8955774029105931</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C303">
-        <v>1.000000107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>20160331</v>
       </c>
       <c r="B304">
-        <v>0.8965533708200518</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C304">
-        <v>0.6666667731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>20160401</v>
       </c>
       <c r="B305">
-        <v>0.8982277377839858</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C305">
-        <v>0.6666667733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>20160405</v>
       </c>
       <c r="B306">
-        <v>0.9112227355753735</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C306">
-        <v>0.6666667737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>20160406</v>
       </c>
       <c r="B307">
-        <v>0.9104825519620835</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C307">
-        <v>0.6666667739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>20160407</v>
       </c>
       <c r="B308">
-        <v>0.8978964459248117</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C308">
-        <v>1.0000001059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,7 +3773,7 @@
         <v>20160408</v>
       </c>
       <c r="B309">
-        <v>0.8908945477119969</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         <v>20160411</v>
       </c>
       <c r="B310">
-        <v>0.9055191432971599</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -3795,7 +3795,7 @@
         <v>20160412</v>
       </c>
       <c r="B311">
-        <v>0.9024420090015879</v>
+        <v>0.8567117939901866</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>0.9199646622016882</v>
       </c>
       <c r="C313">
-        <v>0.6666667751000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>0.9186991869918699</v>
       </c>
       <c r="C314">
-        <v>0.6666667755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>0.9054296049568424</v>
       </c>
       <c r="C315">
-        <v>0.666666774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3853,7 +3853,7 @@
         <v>0.9081635089478649</v>
       </c>
       <c r="C316">
-        <v>1.0000001077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>0.8770817664123778</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>1.0000000489</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>0.8757148144168666</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>1.000000049</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4249,7 +4249,7 @@
         <v>0.8455612860093359</v>
       </c>
       <c r="C352">
-        <v>1.0000001033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4260,7 +4260,7 @@
         <v>0.8482832515549825</v>
       </c>
       <c r="C353">
-        <v>1.000000104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>0.8617199718252689</v>
       </c>
       <c r="C354">
-        <v>1.0000001044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>0.8518946312811145</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>1.0000000462</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>0.8642539068562491</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>1.0000000477</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>0.8692859615820828</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>1.0000000481</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4755,7 +4755,7 @@
         <v>0.9282260664016332</v>
       </c>
       <c r="C398">
-        <v>0.6666667619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4766,7 +4766,7 @@
         <v>0.9280798204457816</v>
       </c>
       <c r="C399">
-        <v>0.6666667622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4777,7 +4777,7 @@
         <v>0.9264561918746941</v>
       </c>
       <c r="C400">
-        <v>1.000000095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4788,7 +4788,7 @@
         <v>0.9276470518009144</v>
       </c>
       <c r="C401">
-        <v>1.0000000951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4799,7 +4799,7 @@
         <v>0.9206958919809463</v>
       </c>
       <c r="C402">
-        <v>1.000000094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4810,7 +4810,7 @@
         <v>0.9221583515394626</v>
       </c>
       <c r="C403">
-        <v>1.000000094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4821,7 +4821,7 @@
         <v>0.9210152453947448</v>
       </c>
       <c r="C404">
-        <v>1.0000000943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4832,7 +4832,7 @@
         <v>0.9157772524861812</v>
       </c>
       <c r="C405">
-        <v>1.0000000944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>0.9163682055322756</v>
       </c>
       <c r="C406">
-        <v>0.6666667612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>0.9205914305839094</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>1.0000000493</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>0.9581706720150902</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>1.0000000494</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>0.9571618733808482</v>
       </c>
       <c r="C456">
-        <v>1</v>
+        <v>1.0000000494</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>0.9565858433914736</v>
       </c>
       <c r="C457">
-        <v>0.6666667590000001</v>
+        <v>1.0000000499</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>0.9575976266370593</v>
       </c>
       <c r="C458">
-        <v>0.6666667588</v>
+        <v>1.0000000495</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>0.9529446175519024</v>
       </c>
       <c r="C459">
-        <v>1.0000000918</v>
+        <v>1.0000000494</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>0.9604926996406529</v>
       </c>
       <c r="C460">
-        <v>1.0000000924</v>
+        <v>1.0000000494</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>0.9695062258992634</v>
       </c>
       <c r="C461">
-        <v>0.6666667603</v>
+        <v>1.0000000497</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>0.9673543211203037</v>
       </c>
       <c r="C462">
-        <v>0.6666667612</v>
+        <v>1.0000000502</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>0.9675333978009383</v>
       </c>
       <c r="C463">
-        <v>0.6666667614</v>
+        <v>1.0000000495</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>0.9735623127156382</v>
       </c>
       <c r="C464">
-        <v>0.6666667629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>0.9780571373995678</v>
       </c>
       <c r="C465">
-        <v>0.6666667630000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>0.979824027315163</v>
       </c>
       <c r="C466">
-        <v>0.6666667629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>0.9700076406050405</v>
       </c>
       <c r="C467">
-        <v>0.6666667622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>0.9769558158136648</v>
       </c>
       <c r="C468">
-        <v>1.000000096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>0.9681601661831597</v>
       </c>
       <c r="C469">
-        <v>1.0000000955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>0.9564813819944367</v>
       </c>
       <c r="C470">
-        <v>1.0000000946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>0.9549711686544179</v>
       </c>
       <c r="C471">
-        <v>1.0000000949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5965,7 +5965,7 @@
         <v>0.9372187003808364</v>
       </c>
       <c r="C508">
-        <v>0.6666667593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>0.9422358320499504</v>
       </c>
       <c r="C509">
-        <v>0.6666667598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>0.9410748182371692</v>
       </c>
       <c r="C510">
-        <v>0.6666667597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5998,7 +5998,7 @@
         <v>0.9452204433938612</v>
       </c>
       <c r="C511">
-        <v>1.000000093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>0.9500555137709967</v>
       </c>
       <c r="C512">
-        <v>0.6666667598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>0.9540907083079641</v>
       </c>
       <c r="C513">
-        <v>0.66666676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6031,7 +6031,7 @@
         <v>0.9601017155546006</v>
       </c>
       <c r="C514">
-        <v>0.6666667608</v>
+        <v>1.0000000461</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6042,7 +6042,7 @@
         <v>0.9604270381910868</v>
       </c>
       <c r="C515">
-        <v>0.6666667607</v>
+        <v>1.0000000456</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6053,7 +6053,7 @@
         <v>0.9589526401871947</v>
       </c>
       <c r="C516">
-        <v>0.6666667612</v>
+        <v>1.0000000453</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6064,7 +6064,7 @@
         <v>0.9639160488521185</v>
       </c>
       <c r="C517">
-        <v>0.6666667613</v>
+        <v>1.0000000454</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6075,7 +6075,7 @@
         <v>0.9556964292109881</v>
       </c>
       <c r="C518">
-        <v>1.0000000939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>0.9670021369817222</v>
       </c>
       <c r="C519">
-        <v>0.6666667623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>0.9709925623485309</v>
       </c>
       <c r="C520">
-        <v>0.6666667624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>0.9733474206988766</v>
       </c>
       <c r="C521">
-        <v>0.6666667624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6119,7 +6119,7 @@
         <v>0.9704105631364685</v>
       </c>
       <c r="C522">
-        <v>0.6666667618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>0.9710224084619701</v>
       </c>
       <c r="C523">
-        <v>1.000000095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>0.963629526163103</v>
       </c>
       <c r="C524">
-        <v>1.0000000943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6152,7 +6152,7 @@
         <v>0.9675304131895944</v>
       </c>
       <c r="C525">
-        <v>1.0000000948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>0.9777467378198011</v>
       </c>
       <c r="C555">
-        <v>1</v>
+        <v>1.0000000462</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>0.9688257345128518</v>
       </c>
       <c r="C556">
-        <v>1</v>
+        <v>1.0000000464</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>0.961692513400905</v>
       </c>
       <c r="C557">
-        <v>1</v>
+        <v>1.0000000461</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>0.954093692919308</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>1.0000000461</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>0.9333983978606306</v>
       </c>
       <c r="C569">
-        <v>1</v>
+        <v>1.0000000461</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>0.9261368384608956</v>
       </c>
       <c r="C570">
-        <v>1</v>
+        <v>1.000000046</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6812,7 +6812,7 @@
         <v>0.928232035624321</v>
       </c>
       <c r="C585">
-        <v>1</v>
+        <v>1.0000000455</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6823,7 +6823,7 @@
         <v>0.9303570789011855</v>
       </c>
       <c r="C586">
-        <v>1</v>
+        <v>1.000000046</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6834,7 +6834,7 @@
         <v>0.9260114847844514</v>
       </c>
       <c r="C587">
-        <v>1</v>
+        <v>1.0000000457</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6845,7 +6845,7 @@
         <v>0.9268829912968733</v>
       </c>
       <c r="C588">
-        <v>0.6666667584</v>
+        <v>1.0000000462</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6856,7 +6856,7 @@
         <v>0.9227403507515251</v>
       </c>
       <c r="C589">
-        <v>1.0000000903</v>
+        <v>1.0000000463</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6867,7 +6867,7 @@
         <v>0.9258652388285997</v>
       </c>
       <c r="C590">
-        <v>1.0000000904</v>
+        <v>1.0000000466</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6878,7 +6878,7 @@
         <v>0.9372634695509952</v>
       </c>
       <c r="C591">
-        <v>1.0000000913</v>
+        <v>1.0000000468</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6889,7 +6889,7 @@
         <v>0.9402510655062497</v>
       </c>
       <c r="C592">
-        <v>1.0000000913</v>
+        <v>1.0000000467</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6900,7 +6900,7 @@
         <v>0.9426596468607858</v>
       </c>
       <c r="C593">
-        <v>0.6666667582</v>
+        <v>1.0000000464</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6911,7 +6911,7 @@
         <v>0.9371321466518631</v>
       </c>
       <c r="C594">
-        <v>0.6666667578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6922,7 +6922,7 @@
         <v>0.9412688179745233</v>
       </c>
       <c r="C595">
-        <v>1.0000000912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6933,7 +6933,7 @@
         <v>0.9343833196041211</v>
       </c>
       <c r="C596">
-        <v>1.0000000908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6944,7 +6944,7 @@
         <v>0.9349265188687128</v>
       </c>
       <c r="C597">
-        <v>1.0000000904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6988,7 +6988,7 @@
         <v>0.9420060169764694</v>
       </c>
       <c r="C601">
-        <v>0.6666667582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6999,7 +6999,7 @@
         <v>0.9393914974392035</v>
       </c>
       <c r="C602">
-        <v>0.6666667592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7010,7 +7010,7 @@
         <v>0.9425014624595585</v>
       </c>
       <c r="C603">
-        <v>0.6666667592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7021,7 +7021,7 @@
         <v>0.9507300359347206</v>
       </c>
       <c r="C604">
-        <v>0.6666667597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7032,7 +7032,7 @@
         <v>0.9524491720688132</v>
       </c>
       <c r="C605">
-        <v>0.6666667603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7043,7 +7043,7 @@
         <v>0.9470768716497737</v>
       </c>
       <c r="C606">
-        <v>0.666666761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7054,7 +7054,7 @@
         <v>0.9515120041068252</v>
       </c>
       <c r="C607">
-        <v>0.666666761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7065,7 +7065,7 @@
         <v>0.9528162792641142</v>
       </c>
       <c r="C608">
-        <v>0.6666667606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7076,7 +7076,7 @@
         <v>0.9538549240117952</v>
       </c>
       <c r="C609">
-        <v>0.6666667607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7087,7 +7087,7 @@
         <v>0.9499420985399282</v>
       </c>
       <c r="C610">
-        <v>1.0000000934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7098,7 +7098,7 @@
         <v>0.9572036579396631</v>
       </c>
       <c r="C611">
-        <v>1.0000000937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7109,7 +7109,7 @@
         <v>0.9587884865632798</v>
       </c>
       <c r="C612">
-        <v>0.6666667607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7120,7 +7120,7 @@
         <v>0.9604359920251185</v>
       </c>
       <c r="C613">
-        <v>0.6666667614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7131,7 +7131,7 @@
         <v>0.9588451941788141</v>
       </c>
       <c r="C614">
-        <v>0.6666667626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7142,7 +7142,7 @@
         <v>0.9559829519000036</v>
       </c>
       <c r="C615">
-        <v>0.6666667692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7153,7 +7153,7 @@
         <v>0.9543414156608526</v>
       </c>
       <c r="C616">
-        <v>0.6666667701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7164,7 +7164,7 @@
         <v>0.9604956842519967</v>
       </c>
       <c r="C617">
-        <v>0.6666667757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7175,7 +7175,7 @@
         <v>0.9617671286845028</v>
       </c>
       <c r="C618">
-        <v>0.6666667757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7186,7 +7186,7 @@
         <v>0.9480498549478887</v>
       </c>
       <c r="C619">
-        <v>0.6666667748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7197,7 +7197,7 @@
         <v>0.9513657581509737</v>
       </c>
       <c r="C620">
-        <v>0.6666667772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7208,7 +7208,7 @@
         <v>0.9643219559948903</v>
       </c>
       <c r="C621">
-        <v>0.6666667776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7219,7 +7219,7 @@
         <v>0.9684645965402385</v>
       </c>
       <c r="C622">
-        <v>0.6666667764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7230,7 +7230,7 @@
         <v>0.9664111839356279</v>
       </c>
       <c r="C623">
-        <v>0.6666667756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7241,7 +7241,7 @@
         <v>0.9701777634516433</v>
       </c>
       <c r="C624">
-        <v>1.0000001095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7252,7 +7252,7 @@
         <v>0.968115397013001</v>
       </c>
       <c r="C625">
-        <v>1.00000011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7263,7 +7263,7 @@
         <v>0.9693032723278775</v>
       </c>
       <c r="C626">
-        <v>1.0000001074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7516,7 +7516,7 @@
         <v>1.003620333560164</v>
       </c>
       <c r="C649">
-        <v>0.6666667802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7527,7 +7527,7 @@
         <v>1.004390363286893</v>
       </c>
       <c r="C650">
-        <v>0.6666667834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7538,7 +7538,7 @@
         <v>1.003912825471867</v>
       </c>
       <c r="C651">
-        <v>0.666666781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>1.003071165072884</v>
       </c>
       <c r="C652">
-        <v>0.6666667795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7560,7 +7560,7 @@
         <v>1.004954454830892</v>
       </c>
       <c r="C653">
-        <v>1.0000001121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7571,7 +7571,7 @@
         <v>1.008673280565405</v>
       </c>
       <c r="C654">
-        <v>0.6666667839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7582,7 +7582,7 @@
         <v>1.010087986342419</v>
       </c>
       <c r="C655">
-        <v>0.6666667831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7593,7 +7593,7 @@
         <v>1.010407339756217</v>
       </c>
       <c r="C656">
-        <v>0.6666667837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7604,7 +7604,7 @@
         <v>1.004470947793178</v>
       </c>
       <c r="C657">
-        <v>0.6666667811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7615,7 +7615,7 @@
         <v>1.004393347898237</v>
       </c>
       <c r="C658">
-        <v>1.0000001149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7626,7 +7626,7 @@
         <v>1.007730143380729</v>
       </c>
       <c r="C659">
-        <v>1.0000001138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7637,7 +7637,7 @@
         <v>1.00864641906331</v>
       </c>
       <c r="C660">
-        <v>1.0000001154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7835,7 +7835,7 @@
         <v>1.011938445375643</v>
       </c>
       <c r="C678">
-        <v>0.6666667803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7846,7 +7846,7 @@
         <v>1.008341988706231</v>
       </c>
       <c r="C679">
-        <v>0.6666667826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7857,7 +7857,7 @@
         <v>1.006422883612096</v>
       </c>
       <c r="C680">
-        <v>1.0000001151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7868,7 +7868,7 @@
         <v>1.009332879672409</v>
       </c>
       <c r="C681">
-        <v>0.6666667836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7879,7 +7879,7 @@
         <v>1.005864761290785</v>
       </c>
       <c r="C682">
-        <v>0.666666783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7890,7 +7890,7 @@
         <v>1.008395711710421</v>
       </c>
       <c r="C683">
-        <v>1.0000001148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7978,7 +7978,7 @@
         <v>1.013547150890011</v>
       </c>
       <c r="C691">
-        <v>1</v>
+        <v>1.0000000606</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7989,7 +7989,7 @@
         <v>1.009786540596683</v>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>1.0000000592</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8000,7 +8000,7 @@
         <v>1.006333345271779</v>
       </c>
       <c r="C693">
-        <v>1</v>
+        <v>1.0000000599</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8011,7 +8011,7 @@
         <v>1.011237061709824</v>
       </c>
       <c r="C694">
-        <v>1</v>
+        <v>1.0000000613</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8022,7 +8022,7 @@
         <v>1.018817974523358</v>
       </c>
       <c r="C695">
-        <v>1</v>
+        <v>1.0000000663</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8033,7 +8033,7 @@
         <v>1.019382066067357</v>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>1.0000000669</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8044,7 +8044,7 @@
         <v>1.023062091854399</v>
       </c>
       <c r="C697">
-        <v>0.66666679</v>
+        <v>1.000000072</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8055,7 +8055,7 @@
         <v>1.024518582190227</v>
       </c>
       <c r="C698">
-        <v>0.6666667897</v>
+        <v>1.0000000727</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8066,7 +8066,7 @@
         <v>1.02904623759894</v>
       </c>
       <c r="C699">
-        <v>0.6666667957</v>
+        <v>1.0000000728</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8077,7 +8077,7 @@
         <v>1.023587383450927</v>
       </c>
       <c r="C700">
-        <v>0.6666667962</v>
+        <v>1.0000000693</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8088,7 +8088,7 @@
         <v>1.015519978988336</v>
       </c>
       <c r="C701">
-        <v>0.6666667957</v>
+        <v>1.0000000701</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8099,7 +8099,7 @@
         <v>1.014544011078877</v>
       </c>
       <c r="C702">
-        <v>0.6666667977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8110,7 +8110,7 @@
         <v>1.009667156142927</v>
       </c>
       <c r="C703">
-        <v>0.6666667985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8121,7 +8121,7 @@
         <v>1.012499552308298</v>
       </c>
       <c r="C704">
-        <v>0.6666668092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8132,7 +8132,7 @@
         <v>1.017901698840777</v>
       </c>
       <c r="C705">
-        <v>0.6666668112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8143,7 +8143,7 @@
         <v>1.023858983083223</v>
       </c>
       <c r="C706">
-        <v>0.6666668177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8154,7 +8154,7 @@
         <v>1.000417845588148</v>
       </c>
       <c r="C707">
-        <v>0.6666668102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8165,7 +8165,7 @@
         <v>1.000984921743491</v>
       </c>
       <c r="C708">
-        <v>0.6666668123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8495,7 +8495,7 @@
         <v>1.017597268483698</v>
       </c>
       <c r="C738">
-        <v>1</v>
+        <v>1.0000000635</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8506,7 +8506,7 @@
         <v>1.018916466697707</v>
       </c>
       <c r="C739">
-        <v>1</v>
+        <v>1.0000000635</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8517,7 +8517,7 @@
         <v>1.021283263493428</v>
       </c>
       <c r="C740">
-        <v>1</v>
+        <v>1.0000000635</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8528,7 +8528,7 @@
         <v>1.022333846686484</v>
       </c>
       <c r="C741">
-        <v>1</v>
+        <v>1.0000000664</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8539,7 +8539,7 @@
         <v>1.023405322158949</v>
       </c>
       <c r="C742">
-        <v>1</v>
+        <v>1.0000000663</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8550,7 +8550,7 @@
         <v>1.017898714229433</v>
       </c>
       <c r="C743">
-        <v>1</v>
+        <v>1.0000000641</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8561,7 +8561,7 @@
         <v>1.02568854983704</v>
       </c>
       <c r="C744">
-        <v>0.6666668086999999</v>
+        <v>1.0000000647</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8572,7 +8572,7 @@
         <v>1.02810011580292</v>
       </c>
       <c r="C745">
-        <v>0.666666809</v>
+        <v>1.0000000637</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8583,7 +8583,7 @@
         <v>1.037077826725404</v>
       </c>
       <c r="C746">
-        <v>0.6666668139</v>
+        <v>1.0000000664</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8594,7 +8594,7 @@
         <v>1.040990652197271</v>
       </c>
       <c r="C747">
-        <v>0.6666668147</v>
+        <v>1.0000000666</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8605,7 +8605,7 @@
         <v>1.04501987751155</v>
       </c>
       <c r="C748">
-        <v>0.6666668111</v>
+        <v>1.0000000682</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8616,7 +8616,7 @@
         <v>1.058492413117964</v>
       </c>
       <c r="C749">
-        <v>0.6666668132</v>
+        <v>1.0000000717</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8627,7 +8627,7 @@
         <v>1.062363454031016</v>
       </c>
       <c r="C750">
-        <v>1.0000001464</v>
+        <v>1.0000000718</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8638,7 +8638,7 @@
         <v>1.059032627771212</v>
       </c>
       <c r="C751">
-        <v>1.000000142</v>
+        <v>1.000000073</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8649,7 +8649,7 @@
         <v>1.061963516110932</v>
       </c>
       <c r="C752">
-        <v>1.0000001405</v>
+        <v>1.0000000689</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8946,7 +8946,7 @@
         <v>0.9879779855067272</v>
       </c>
       <c r="C779">
-        <v>1</v>
+        <v>1.0000000632</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>0.9823490085121116</v>
       </c>
       <c r="C780">
-        <v>1</v>
+        <v>1.0000000629</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -10200,7 +10200,7 @@
         <v>0.8299905686281532</v>
       </c>
       <c r="C893">
-        <v>0.666666771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10211,7 +10211,7 @@
         <v>0.8291190621157313</v>
       </c>
       <c r="C894">
-        <v>0.6666667696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10222,7 +10222,7 @@
         <v>0.8265254348578728</v>
       </c>
       <c r="C895">
-        <v>0.6666667694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10233,7 +10233,7 @@
         <v>0.8171089860678342</v>
       </c>
       <c r="C896">
-        <v>0.6666667679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10244,7 +10244,7 @@
         <v>0.8133812064992897</v>
       </c>
       <c r="C897">
-        <v>1.0000001013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10255,7 +10255,7 @@
         <v>0.812032162171842</v>
       </c>
       <c r="C898">
-        <v>1.0000001019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10266,7 +10266,7 @@
         <v>0.8209412270334157</v>
       </c>
       <c r="C899">
-        <v>0.666666771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10277,7 +10277,7 @@
         <v>0.8071403841791722</v>
       </c>
       <c r="C900">
-        <v>1.0000001005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10420,7 +10420,7 @@
         <v>0.830062199300407</v>
       </c>
       <c r="C913">
-        <v>0.6666667722</v>
+        <v>1.0000000417</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10431,7 +10431,7 @@
         <v>0.8377236966202261</v>
       </c>
       <c r="C914">
-        <v>0.6666667737999999</v>
+        <v>1.0000000418</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10442,7 +10442,7 @@
         <v>0.8332348411589843</v>
       </c>
       <c r="C915">
-        <v>0.6666667741</v>
+        <v>1.0000000414</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10453,7 +10453,7 @@
         <v>0.8420633215142724</v>
       </c>
       <c r="C916">
-        <v>0.6666667772</v>
+        <v>1.0000000422</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10464,7 +10464,7 @@
         <v>0.8107726561847117</v>
       </c>
       <c r="C917">
-        <v>1.0000001045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10475,7 +10475,7 @@
         <v>0.8121157312894716</v>
       </c>
       <c r="C918">
-        <v>1.0000001056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10486,7 +10486,7 @@
         <v>0.8135572985685805</v>
       </c>
       <c r="C919">
-        <v>1.0000001045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10607,7 +10607,7 @@
         <v>0.7771331017274931</v>
       </c>
       <c r="C930">
-        <v>0.6666667796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10618,7 +10618,7 @@
         <v>0.7756557191122572</v>
       </c>
       <c r="C931">
-        <v>0.6666667785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -10629,7 +10629,7 @@
         <v>0.7587180497355634</v>
       </c>
       <c r="C932">
-        <v>1.0000001075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -10640,7 +10640,7 @@
         <v>0.766463116173012</v>
       </c>
       <c r="C933">
-        <v>1.000000109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -10651,7 +10651,7 @@
         <v>0.7768286713704142</v>
       </c>
       <c r="C934">
-        <v>1.0000001091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -10761,7 +10761,7 @@
         <v>0.7856213363895753</v>
       </c>
       <c r="C944">
-        <v>1</v>
+        <v>1.0000000388</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10772,7 +10772,7 @@
         <v>0.7963450449482469</v>
       </c>
       <c r="C945">
-        <v>1</v>
+        <v>1.0000000392</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -10783,7 +10783,7 @@
         <v>0.7996102097584853</v>
       </c>
       <c r="C946">
-        <v>1</v>
+        <v>1.0000000398</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -10794,7 +10794,7 @@
         <v>0.8068926614376276</v>
       </c>
       <c r="C947">
-        <v>1</v>
+        <v>1.0000000412</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -10805,7 +10805,7 @@
         <v>0.7896833924286379</v>
       </c>
       <c r="C948">
-        <v>1</v>
+        <v>1.0000000395</v>
       </c>
     </row>
     <row r="949" spans="1:3">
@@ -10816,7 +10816,7 @@
         <v>0.7913726824492915</v>
       </c>
       <c r="C949">
-        <v>1</v>
+        <v>1.0000000393</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -11245,7 +11245,7 @@
         <v>0.7639530580327829</v>
       </c>
       <c r="C988">
-        <v>0.6666667692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11256,7 +11256,7 @@
         <v>0.7748080894905867</v>
       </c>
       <c r="C989">
-        <v>0.666666771</v>
+        <v>1.0000000352</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -11267,7 +11267,7 @@
         <v>0.7791357759392573</v>
       </c>
       <c r="C990">
-        <v>0.6666667701</v>
+        <v>1.0000000355</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -11278,7 +11278,7 @@
         <v>0.769940188388668</v>
       </c>
       <c r="C991">
-        <v>1.0000001028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -11289,7 +11289,7 @@
         <v>0.7703281878633764</v>
       </c>
       <c r="C992">
-        <v>0.6666667702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11300,7 +11300,7 @@
         <v>0.7735187373900171</v>
       </c>
       <c r="C993">
-        <v>0.6666667719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -11311,7 +11311,7 @@
         <v>0.7765123025679596</v>
       </c>
       <c r="C994">
-        <v>0.6666667767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11322,7 +11322,7 @@
         <v>0.7750975967909459</v>
       </c>
       <c r="C995">
-        <v>0.6666667761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -11333,7 +11333,7 @@
         <v>0.7742827978940583</v>
       </c>
       <c r="C996">
-        <v>0.6666667767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -11344,7 +11344,7 @@
         <v>0.7687105285149768</v>
       </c>
       <c r="C997">
-        <v>0.6666667762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11355,7 +11355,7 @@
         <v>0.7713936941131526</v>
       </c>
       <c r="C998">
-        <v>0.6666667777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11366,7 +11366,7 @@
         <v>0.7814398958967563</v>
       </c>
       <c r="C999">
-        <v>0.6666667787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
@@ -11377,7 +11377,7 @@
         <v>0.7920860045604862</v>
       </c>
       <c r="C1000">
-        <v>0.6666667788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
@@ -11388,7 +11388,7 @@
         <v>0.7974553203681817</v>
       </c>
       <c r="C1001">
-        <v>0.6666667786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
@@ -11399,7 +11399,7 @@
         <v>0.812133638957535</v>
       </c>
       <c r="C1002">
-        <v>0.6666667804999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
@@ -11410,7 +11410,7 @@
         <v>0.8117247472034191</v>
       </c>
       <c r="C1003">
-        <v>0.6666667791999999</v>
+        <v>1.0000000363</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
@@ -11421,7 +11421,7 @@
         <v>0.800589162279288</v>
       </c>
       <c r="C1004">
-        <v>1.0000001095</v>
+        <v>1.0000000358</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11432,7 +11432,7 @@
         <v>0.822069410121414</v>
       </c>
       <c r="C1005">
-        <v>0.6666667803</v>
+        <v>1.0000000369</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
@@ -11443,7 +11443,7 @@
         <v>0.8224544249847785</v>
       </c>
       <c r="C1006">
-        <v>1.0000001127</v>
+        <v>1.0000000383</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
@@ -11454,7 +11454,7 @@
         <v>0.8241168535033367</v>
       </c>
       <c r="C1007">
-        <v>0.6666667808</v>
+        <v>1.0000000383</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -11465,7 +11465,7 @@
         <v>0.8213053496173729</v>
       </c>
       <c r="C1008">
-        <v>0.6666667803</v>
+        <v>1.0000000372</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -11476,7 +11476,7 @@
         <v>0.8369536668934972</v>
       </c>
       <c r="C1009">
-        <v>0.6666667821</v>
+        <v>1.0000000379</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
@@ -11487,7 +11487,7 @@
         <v>0.8838269880496162</v>
       </c>
       <c r="C1010">
-        <v>0.6666667922</v>
+        <v>1.0000000394</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
@@ -11498,7 +11498,7 @@
         <v>0.8779293960340484</v>
       </c>
       <c r="C1011">
-        <v>0.6666667887</v>
+        <v>1.0000000424</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
@@ -11509,7 +11509,7 @@
         <v>0.8816004679870588</v>
       </c>
       <c r="C1012">
-        <v>0.6666667907</v>
+        <v>1.0000000436</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
@@ -11520,7 +11520,7 @@
         <v>0.8777592731874455</v>
       </c>
       <c r="C1013">
-        <v>0.6666667903</v>
+        <v>1.0000000426</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
@@ -11531,7 +11531,7 @@
         <v>0.8935926363668923</v>
       </c>
       <c r="C1014">
-        <v>0.6666667943</v>
+        <v>1.0000000432</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -11542,7 +11542,7 @@
         <v>0.9036149612597447</v>
       </c>
       <c r="C1015">
-        <v>0.6666667965999999</v>
+        <v>1.000000046</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11553,7 +11553,7 @@
         <v>0.9115749197139549</v>
       </c>
       <c r="C1016">
-        <v>0.6666667973</v>
+        <v>1.0000000506</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11564,7 +11564,7 @@
         <v>0.925856284994568</v>
       </c>
       <c r="C1017">
-        <v>0.6666667975</v>
+        <v>1.0000000508</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11575,7 +11575,7 @@
         <v>0.9271456370951375</v>
       </c>
       <c r="C1018">
-        <v>1.0000001274</v>
+        <v>1.0000000491</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
@@ -11586,7 +11586,7 @@
         <v>0.8863877845826917</v>
       </c>
       <c r="C1019">
-        <v>1.000000123</v>
+        <v>1.0000000448</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11597,7 +11597,7 @@
         <v>0.9034388691904539</v>
       </c>
       <c r="C1020">
-        <v>1</v>
+        <v>1.0000000468</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11784,7 +11784,7 @@
         <v>0.9599405465420293</v>
       </c>
       <c r="C1037">
-        <v>0.6666668011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
@@ -11795,7 +11795,7 @@
         <v>0.9689749650800473</v>
       </c>
       <c r="C1038">
-        <v>0.6666668053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
@@ -11806,7 +11806,7 @@
         <v>0.968449673483519</v>
       </c>
       <c r="C1039">
-        <v>0.6666668063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -11817,7 +11817,7 @@
         <v>0.9669125986414049</v>
       </c>
       <c r="C1040">
-        <v>0.6666668048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11828,7 +11828,7 @@
         <v>0.9675901054164726</v>
       </c>
       <c r="C1041">
-        <v>0.666666804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -11839,7 +11839,7 @@
         <v>0.9520790802621683</v>
       </c>
       <c r="C1042">
-        <v>1.0000001354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
@@ -11850,7 +11850,7 @@
         <v>0.9516821269534281</v>
       </c>
       <c r="C1043">
-        <v>1.0000001342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
@@ -11861,7 +11861,7 @@
         <v>0.9484468082566289</v>
       </c>
       <c r="C1044">
-        <v>1.0000001369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -11872,7 +11872,7 @@
         <v>0.9710731468548165</v>
       </c>
       <c r="C1045">
-        <v>0.6666668125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
@@ -11883,7 +11883,7 @@
         <v>0.9739144968542196</v>
       </c>
       <c r="C1046">
-        <v>0.6666668102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
@@ -11894,7 +11894,7 @@
         <v>0.9700583789978868</v>
       </c>
       <c r="C1047">
-        <v>0.6666668101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
@@ -11905,7 +11905,7 @@
         <v>0.9762066783663432</v>
       </c>
       <c r="C1048">
-        <v>0.6666668140000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
@@ -11916,7 +11916,7 @@
         <v>0.9595644855126966</v>
       </c>
       <c r="C1049">
-        <v>1.0000001415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
@@ -11927,7 +11927,7 @@
         <v>0.9546547998519633</v>
       </c>
       <c r="C1050">
-        <v>1.0000001407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -11938,7 +11938,7 @@
         <v>0.9555561524778243</v>
       </c>
       <c r="C1051">
-        <v>0.6666668111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
@@ -11968,7 +11968,7 @@
         <v>20190429</v>
       </c>
       <c r="B1054">
-        <v>0.9140372240726813</v>
+        <v>0.9211704451846281</v>
       </c>
       <c r="C1054">
         <v>1</v>
